--- a/Login_Details.xlsx
+++ b/Login_Details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Ceic@12345678</t>
+  </si>
+  <si>
+    <t>cdmnextperf5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -132,6 +135,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,9 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -447,14 +453,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Login_Details.xlsx
+++ b/Login_Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksathish\git\cucumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speriyasamy\Desktop\26-03-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -32,19 +32,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>psathishkgm@gmail.com</t>
-  </si>
-  <si>
     <t>Ceic@123</t>
   </si>
   <si>
-    <t>speriyasamy@isimarkets.com</t>
+    <t>cdmnextperf5@gmail.com</t>
   </si>
   <si>
-    <t>Ceic@12345678</t>
-  </si>
-  <si>
-    <t>cdmnextperf5@gmail.com</t>
+    <t>ceicsuresh12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -126,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -135,7 +129,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,11 +410,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -439,26 +430,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -467,10 +450,8 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>